--- a/data/trans_orig/P14B24_2016_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B24_2016_2023-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>10722</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5623</v>
+        <v>5639</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18441</v>
+        <v>18589</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01421361764229213</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00745401560393916</v>
+        <v>0.007474794145992936</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02444689547481176</v>
+        <v>0.02464296285320604</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>70</v>
@@ -763,19 +763,19 @@
         <v>78280</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>61965</v>
+        <v>62870</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>97319</v>
+        <v>97739</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07870016635820552</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06229733877993623</v>
+        <v>0.06320791729292041</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09784187961922759</v>
+        <v>0.09826421073337628</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>81</v>
@@ -784,19 +784,19 @@
         <v>89002</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>70143</v>
+        <v>71901</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>109064</v>
+        <v>110573</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0508871149465137</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04010449114144254</v>
+        <v>0.04110959265063539</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06235756077594752</v>
+        <v>0.0632201633012546</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>743625</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>735906</v>
+        <v>735758</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>748724</v>
+        <v>748708</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9857863823577079</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9755531045251882</v>
+        <v>0.9753570371467939</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9925459843960608</v>
+        <v>0.9925252058540071</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>822</v>
@@ -834,19 +834,19 @@
         <v>916380</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>897341</v>
+        <v>896921</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>932695</v>
+        <v>931790</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9212998336417945</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9021581203807721</v>
+        <v>0.9017357892666237</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9377026612200637</v>
+        <v>0.9367920827070796</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1573</v>
@@ -855,19 +855,19 @@
         <v>1660005</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1639943</v>
+        <v>1638434</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1678864</v>
+        <v>1677106</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9491128850534863</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9376424392240524</v>
+        <v>0.9367798366987455</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9598955088585572</v>
+        <v>0.9588904073493647</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>24545</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16097</v>
+        <v>15914</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35049</v>
+        <v>36398</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01182635505135088</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007755931761188292</v>
+        <v>0.007667591874014343</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01688709601531857</v>
+        <v>0.01753689813005398</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>59</v>
@@ -980,19 +980,19 @@
         <v>64677</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50870</v>
+        <v>49716</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>84607</v>
+        <v>83525</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03252897640293884</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02558448578298483</v>
+        <v>0.02500417649058699</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04255239009159516</v>
+        <v>0.04200845550031704</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>83</v>
@@ -1001,19 +1001,19 @@
         <v>89223</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>71951</v>
+        <v>72422</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>110530</v>
+        <v>110819</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02195559124248097</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01770543682130835</v>
+        <v>0.01782123102654741</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0271988526460972</v>
+        <v>0.02726980560376131</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>2050938</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2040434</v>
+        <v>2039085</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2059386</v>
+        <v>2059569</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9881736449486491</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9831129039846814</v>
+        <v>0.9824631018699462</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9922440682388117</v>
+        <v>0.9923324081259857</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1849</v>
@@ -1051,19 +1051,19 @@
         <v>1923623</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1903693</v>
+        <v>1904775</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1937430</v>
+        <v>1938584</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9674710235970612</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9574476099084045</v>
+        <v>0.957991544499683</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9744155142170151</v>
+        <v>0.9749958235094133</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3776</v>
@@ -1072,19 +1072,19 @@
         <v>3974560</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3953253</v>
+        <v>3952964</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3991832</v>
+        <v>3991361</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9780444087575191</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9728011473539029</v>
+        <v>0.972730194396239</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.982294563178692</v>
+        <v>0.9821787689734526</v>
       </c>
     </row>
     <row r="9">
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6123</v>
+        <v>6443</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003386219901960615</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01119548639113989</v>
+        <v>0.01178058231643026</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1197,19 +1197,19 @@
         <v>3750</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8569</v>
+        <v>8487</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00682837351184027</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001840671879434965</v>
+        <v>0.001848057574126126</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01560398841536839</v>
+        <v>0.01545508860814029</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1218,19 +1218,19 @@
         <v>5602</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2663</v>
+        <v>1974</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11373</v>
+        <v>11962</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005110836359766699</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002429314929389565</v>
+        <v>0.00180129999568049</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01037650273684305</v>
+        <v>0.01091398935569928</v>
       </c>
     </row>
     <row r="11">
@@ -1247,7 +1247,7 @@
         <v>545034</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>540763</v>
+        <v>540443</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>546886</v>
@@ -1256,7 +1256,7 @@
         <v>0.9966137800980394</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9888045136088593</v>
+        <v>0.9882194176835684</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1268,19 +1268,19 @@
         <v>545390</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>540571</v>
+        <v>540653</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>548129</v>
+        <v>548125</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9931716264881597</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9843960115846314</v>
+        <v>0.9845449113918595</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9981593281205651</v>
+        <v>0.9981519424258738</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1021</v>
@@ -1289,19 +1289,19 @@
         <v>1090425</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1084654</v>
+        <v>1084065</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1093364</v>
+        <v>1094053</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9948891636402333</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.989623497263157</v>
+        <v>0.9890860106443007</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9975706850706104</v>
+        <v>0.9981987000043195</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>37119</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26466</v>
+        <v>26453</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48752</v>
+        <v>50011</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01099271386440097</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007837789624814734</v>
+        <v>0.007833898811430711</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01443762963839082</v>
+        <v>0.01481039864794052</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>133</v>
@@ -1414,19 +1414,19 @@
         <v>146707</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>123041</v>
+        <v>122590</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>174445</v>
+        <v>173652</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04153534667938539</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03483519098328215</v>
+        <v>0.03470739436185389</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04938843580219345</v>
+        <v>0.04916394463772203</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>170</v>
@@ -1435,19 +1435,19 @@
         <v>183826</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>156603</v>
+        <v>157102</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>211417</v>
+        <v>211414</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02660749286125293</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02266714632695586</v>
+        <v>0.02273939698641144</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03060104360279878</v>
+        <v>0.03060057757318071</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>3339597</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3327964</v>
+        <v>3326705</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3350250</v>
+        <v>3350263</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9890072861355991</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9855623703616082</v>
+        <v>0.9851896013520589</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9921622103751851</v>
+        <v>0.9921661011885692</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3193</v>
@@ -1485,19 +1485,19 @@
         <v>3385393</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3357655</v>
+        <v>3358448</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3409059</v>
+        <v>3409510</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9584646533206146</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9506115641978066</v>
+        <v>0.950836055362278</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9651648090167179</v>
+        <v>0.9652926056381461</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6370</v>
@@ -1506,19 +1506,19 @@
         <v>6724991</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6697400</v>
+        <v>6697403</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6752214</v>
+        <v>6751715</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.973392507138747</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9693989563972011</v>
+        <v>0.9693994224268193</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9773328536730441</v>
+        <v>0.9772606030135885</v>
       </c>
     </row>
     <row r="15">
@@ -1849,19 +1849,19 @@
         <v>29210</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20757</v>
+        <v>20458</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41432</v>
+        <v>40980</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05057699706544629</v>
+        <v>0.05057699706544628</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03594026236384749</v>
+        <v>0.03542172584564756</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07173922625493462</v>
+        <v>0.07095613871543791</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>126</v>
@@ -1870,19 +1870,19 @@
         <v>76243</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>64164</v>
+        <v>63572</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>91034</v>
+        <v>89061</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.09290876155150556</v>
+        <v>0.09290876155150558</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07818880883084445</v>
+        <v>0.07746707212746816</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1109324271741048</v>
+        <v>0.1085283567455823</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>160</v>
@@ -1891,19 +1891,19 @@
         <v>105454</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>90293</v>
+        <v>90365</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>124752</v>
+        <v>123666</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07542277641468385</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06457962260761481</v>
+        <v>0.06463127065240533</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08922515483486096</v>
+        <v>0.08844824923975386</v>
       </c>
     </row>
     <row r="5">
@@ -1920,19 +1920,19 @@
         <v>548332</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>536110</v>
+        <v>536562</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>556785</v>
+        <v>557084</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9494230029345538</v>
+        <v>0.9494230029345536</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9282607737450655</v>
+        <v>0.9290438612845621</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9640597376361525</v>
+        <v>0.9645782741543527</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1299</v>
@@ -1941,19 +1941,19 @@
         <v>744384</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>729593</v>
+        <v>731566</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>756463</v>
+        <v>757055</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9070912384484945</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8890675728258951</v>
+        <v>0.8914716432544177</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9218111911691557</v>
+        <v>0.9225329278725318</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1955</v>
@@ -1962,19 +1962,19 @@
         <v>1292715</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1273417</v>
+        <v>1274503</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1307876</v>
+        <v>1307804</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9245772235853162</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9107748451651388</v>
+        <v>0.9115517507602462</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9354203773923854</v>
+        <v>0.9353687293475947</v>
       </c>
     </row>
     <row r="6">
@@ -2066,19 +2066,19 @@
         <v>48968</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36501</v>
+        <v>36740</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65958</v>
+        <v>66992</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02196169442495351</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01637040559863397</v>
+        <v>0.01647768236310765</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02958148922645923</v>
+        <v>0.03004551866331637</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>173</v>
@@ -2087,19 +2087,19 @@
         <v>125358</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>108577</v>
+        <v>107914</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>147361</v>
+        <v>147221</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.05782531053757295</v>
+        <v>0.05782531053757294</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05008463080883181</v>
+        <v>0.04977888061654242</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06797479507714524</v>
+        <v>0.06791036230846947</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>221</v>
@@ -2108,19 +2108,19 @@
         <v>174326</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>149403</v>
+        <v>150691</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>200260</v>
+        <v>201209</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03964139758999492</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03397407157124558</v>
+        <v>0.03426686937300803</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04553880858567085</v>
+        <v>0.04575454079965485</v>
       </c>
     </row>
     <row r="8">
@@ -2137,19 +2137,19 @@
         <v>2180730</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2163740</v>
+        <v>2162706</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2193197</v>
+        <v>2192958</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9780383055750466</v>
+        <v>0.9780383055750463</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9704185107735404</v>
+        <v>0.9699544813366834</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.983629594401366</v>
+        <v>0.9835223176368921</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2743</v>
@@ -2158,19 +2158,19 @@
         <v>2042514</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2020511</v>
+        <v>2020651</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2059295</v>
+        <v>2059958</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.942174689462427</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9320252049228547</v>
+        <v>0.9320896376915304</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9499153691911683</v>
+        <v>0.9502211193834577</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4686</v>
@@ -2179,19 +2179,19 @@
         <v>4223244</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4197310</v>
+        <v>4196361</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4248167</v>
+        <v>4246879</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.960358602410005</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9544611914143291</v>
+        <v>0.9542454592003449</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9660259284287543</v>
+        <v>0.9657331306269917</v>
       </c>
     </row>
     <row r="9">
@@ -2283,19 +2283,19 @@
         <v>18849</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10851</v>
+        <v>11236</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32349</v>
+        <v>32074</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02660967015403897</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01531886872097706</v>
+        <v>0.01586223700047073</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04566841876308911</v>
+        <v>0.04527968825826723</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -2304,19 +2304,19 @@
         <v>27489</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19694</v>
+        <v>19890</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38397</v>
+        <v>39311</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03740687248177742</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02679864228072514</v>
+        <v>0.0270660413662449</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05225000892356869</v>
+        <v>0.05349375223112279</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>52</v>
@@ -2325,19 +2325,19 @@
         <v>46339</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34453</v>
+        <v>34716</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>63130</v>
+        <v>61653</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03210747920586638</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0238721635583562</v>
+        <v>0.02405425327745326</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0437420764608898</v>
+        <v>0.04271899794145271</v>
       </c>
     </row>
     <row r="11">
@@ -2354,19 +2354,19 @@
         <v>689507</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>676007</v>
+        <v>676282</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>697505</v>
+        <v>697120</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.973390329845961</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9543315812369112</v>
+        <v>0.9547203117417328</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.984681131279023</v>
+        <v>0.9841377629995294</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>967</v>
@@ -2375,19 +2375,19 @@
         <v>707388</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>696480</v>
+        <v>695566</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>715183</v>
+        <v>714987</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9625931275182225</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9477499910764312</v>
+        <v>0.9465062477688777</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9732013577192749</v>
+        <v>0.9729339586337552</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1630</v>
@@ -2396,19 +2396,19 @@
         <v>1396894</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1380103</v>
+        <v>1381580</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1408780</v>
+        <v>1408517</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9678925207941337</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9562579235391101</v>
+        <v>0.9572810020585474</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9761278364416437</v>
+        <v>0.9759457467225467</v>
       </c>
     </row>
     <row r="12">
@@ -2500,19 +2500,19 @@
         <v>97027</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>80006</v>
+        <v>78131</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>120833</v>
+        <v>118947</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02759913380375445</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02275749944336293</v>
+        <v>0.02222403981732918</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03437055226069251</v>
+        <v>0.03383415381595894</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>336</v>
@@ -2521,19 +2521,19 @@
         <v>229091</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>204000</v>
+        <v>204252</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>258935</v>
+        <v>255219</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06152770140838702</v>
+        <v>0.06152770140838703</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05478894188168888</v>
+        <v>0.05485673665918379</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06954312000086255</v>
+        <v>0.0685451484244116</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>433</v>
@@ -2542,19 +2542,19 @@
         <v>326118</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>295753</v>
+        <v>298514</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>362561</v>
+        <v>365249</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04505034616351378</v>
+        <v>0.04505034616351379</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04085571375016393</v>
+        <v>0.04123705623630626</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05008454528750519</v>
+        <v>0.050455910301997</v>
       </c>
     </row>
     <row r="14">
@@ -2571,19 +2571,19 @@
         <v>3418569</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3394763</v>
+        <v>3396649</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3435590</v>
+        <v>3437465</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9724008661962456</v>
+        <v>0.9724008661962454</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9656294477393074</v>
+        <v>0.9661658461840411</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9772425005566371</v>
+        <v>0.9777759601826708</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5009</v>
@@ -2592,19 +2592,19 @@
         <v>3494286</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3464442</v>
+        <v>3468158</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3519377</v>
+        <v>3519125</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9384722985916129</v>
+        <v>0.938472298591613</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9304568799991376</v>
+        <v>0.9314548515755882</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9452110581183111</v>
+        <v>0.9451432633408162</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8271</v>
@@ -2613,19 +2613,19 @@
         <v>6912855</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6876412</v>
+        <v>6873724</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6943220</v>
+        <v>6940459</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9549496538364862</v>
+        <v>0.9549496538364863</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9499154547124947</v>
+        <v>0.949544089698003</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9591442862498361</v>
+        <v>0.9587629437636936</v>
       </c>
     </row>
     <row r="15">
